--- a/municipal/ENG/byOrganization-legalForms/Number of active entities by organizational-legal form/Number of active entities by organizational-legal form.xlsx
+++ b/municipal/ENG/byOrganization-legalForms/Number of active entities by organizational-legal form/Number of active entities by organizational-legal form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\რეზერვი დამთავრებულები მაჩვენ\ბიზნეს რეგისტრი ქარ. EN\Number of active entities by organizational-legal form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Number of active entities by organizational-legal form\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="98">
   <si>
     <t>(Unit)</t>
   </si>
@@ -314,9 +314,6 @@
     <t>Terjola Municipality</t>
   </si>
   <si>
-    <t>Note: Data is confidential or isn't available.</t>
-  </si>
-  <si>
     <t>Organizational-legal form</t>
   </si>
   <si>
@@ -330,7 +327,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +378,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -519,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -549,6 +552,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -837,7 +843,7 @@
   <dimension ref="A1:K848"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -847,9 +853,9 @@
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -877,9 +883,9 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="4">
         <v>2012</v>
@@ -30453,10 +30459,8 @@
       </c>
     </row>
     <row r="848" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A848" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B848" s="15"/>
+      <c r="A848" s="15"/>
+      <c r="B848" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
